--- a/Homework3/src/test/resources/Report.xlsx
+++ b/Homework3/src/test/resources/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronika\IdeaProjects\LanitAT\Homework3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3D2901-D06B-4887-BBD0-2BCA71A6BF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681F6071-1815-42CB-8277-5D91734BB76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Реальное поведение</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>В методе countTicketPrice невозможно использовать метод discount, т.к. он не возвращает размер скидки.</t>
+  </si>
+  <si>
+    <t>Второй конструктор EmployeeCard содержит неиспользуемую переменную age.</t>
+  </si>
+  <si>
+    <t>Второй конструктор EmployeeCard работает с переданными ему переменными.</t>
+  </si>
+  <si>
+    <t>Метод класса EmployeeCard работает выводит все параметры о сотруднике.</t>
+  </si>
+  <si>
+    <t>Метод класса EmployeeCard не выводит эффективность сотрудника.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +405,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +469,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
